--- a/2024 SMP 육지.xlsx
+++ b/2024 SMP 육지.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\금통\전력거래\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C93DA5-8A44-4A55-932E-F8B336F5769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93D0083-EF04-4319-AAB7-80A2CDA3DDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,9 +487,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB162"/>
+  <dimension ref="A1:AB164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
       <selection sqref="A1:AB1"/>
     </sheetView>
   </sheetViews>
@@ -14255,7 +14255,7 @@
         <v>126.41</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:28" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>20240608</v>
       </c>
@@ -14341,12 +14341,184 @@
         <v>128.05000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:28" ht="19.2" x14ac:dyDescent="0.45"/>
+    <row r="162" spans="1:28" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>20240609</v>
+      </c>
+      <c r="B162">
+        <v>98.85</v>
+      </c>
+      <c r="C162">
+        <v>87.57</v>
+      </c>
+      <c r="D162">
+        <v>87.57</v>
+      </c>
+      <c r="E162">
+        <v>81.77</v>
+      </c>
+      <c r="F162">
+        <v>83.03</v>
+      </c>
+      <c r="G162">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="H162">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="I162">
+        <v>84.81</v>
+      </c>
+      <c r="J162">
+        <v>97.4</v>
+      </c>
+      <c r="K162">
+        <v>104.34</v>
+      </c>
+      <c r="L162">
+        <v>120.74</v>
+      </c>
+      <c r="M162">
+        <v>145.66</v>
+      </c>
+      <c r="N162">
+        <v>120.16</v>
+      </c>
+      <c r="O162">
+        <v>120.16</v>
+      </c>
+      <c r="P162">
+        <v>120.16</v>
+      </c>
+      <c r="Q162">
+        <v>116.86</v>
+      </c>
+      <c r="R162">
+        <v>120.16</v>
+      </c>
+      <c r="S162">
+        <v>120.79</v>
+      </c>
+      <c r="T162">
+        <v>120.73</v>
+      </c>
+      <c r="U162">
+        <v>139.75</v>
+      </c>
+      <c r="V162">
+        <v>152.66999999999999</v>
+      </c>
+      <c r="W162">
+        <v>135.04</v>
+      </c>
+      <c r="X162">
+        <v>110.95</v>
+      </c>
+      <c r="Y162">
+        <v>100.39</v>
+      </c>
+      <c r="Z162">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="AA162">
+        <v>152.66999999999999</v>
+      </c>
+      <c r="AB162">
+        <v>110.78</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>20240610</v>
+      </c>
+      <c r="B163">
+        <v>108.29</v>
+      </c>
+      <c r="C163">
+        <v>92.67</v>
+      </c>
+      <c r="D163">
+        <v>91.48</v>
+      </c>
+      <c r="E163">
+        <v>80.89</v>
+      </c>
+      <c r="F163">
+        <v>80.89</v>
+      </c>
+      <c r="G163">
+        <v>91.57</v>
+      </c>
+      <c r="H163">
+        <v>108.23</v>
+      </c>
+      <c r="I163">
+        <v>114.34</v>
+      </c>
+      <c r="J163">
+        <v>138.13999999999999</v>
+      </c>
+      <c r="K163">
+        <v>139.69</v>
+      </c>
+      <c r="L163">
+        <v>141.13999999999999</v>
+      </c>
+      <c r="M163">
+        <v>139.69</v>
+      </c>
+      <c r="N163">
+        <v>134.18</v>
+      </c>
+      <c r="O163">
+        <v>141.91999999999999</v>
+      </c>
+      <c r="P163">
+        <v>143.08000000000001</v>
+      </c>
+      <c r="Q163">
+        <v>143.08000000000001</v>
+      </c>
+      <c r="R163">
+        <v>142.16</v>
+      </c>
+      <c r="S163">
+        <v>141.16</v>
+      </c>
+      <c r="T163">
+        <v>134.86000000000001</v>
+      </c>
+      <c r="U163">
+        <v>133.03</v>
+      </c>
+      <c r="V163">
+        <v>132.99</v>
+      </c>
+      <c r="W163">
+        <v>132.96</v>
+      </c>
+      <c r="X163">
+        <v>132.41</v>
+      </c>
+      <c r="Y163">
+        <v>130.81</v>
+      </c>
+      <c r="Z163">
+        <v>80.89</v>
+      </c>
+      <c r="AA163">
+        <v>143.08000000000001</v>
+      </c>
+      <c r="AB163">
+        <v>125.96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" ht="19.2" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AB161" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AB163" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>